--- a/templates/day_schedule_template.xlsx
+++ b/templates/day_schedule_template.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$28</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -62,13 +62,13 @@
     <t>INSTRUCTORS:  Must submit by the 1st week of the term with course number, office hours, tutoring hours, room and if you see students by appointment only. If Distance Learning Only Instructors, please indicate course titles &amp; any office hours available.</t>
   </si>
   <si>
-    <t>SPRING</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email: </t>
   </si>
   <si>
     <t xml:space="preserve">Instructor: </t>
+  </si>
+  <si>
+    <t>SUMMER</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -182,17 +182,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -254,17 +243,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -306,77 +284,77 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -390,35 +368,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,7 +684,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -721,40 +699,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37">
+      <c r="A1" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41">
         <v>2018</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="14"/>
       <c r="E3" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="19"/>
